--- a/PRESUPUESTO_MI_IDEA_TFG(1).xlsx
+++ b/PRESUPUESTO_MI_IDEA_TFG(1).xlsx
@@ -1,23 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20406"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zekro\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\S2-PC00\Documents\GitHub\acceso-y-psp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1B7EE94-0403-4D9A-9FE6-311145EFE7A4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="30720" windowHeight="12732" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="30720" windowHeight="12735" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Presupuesto De Material" sheetId="1" r:id="rId1"/>
     <sheet name="Presupuesto De Mano De Obra" sheetId="2" r:id="rId2"/>
     <sheet name="TOTAL" sheetId="5" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -27,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="150">
   <si>
     <t>Concepto</t>
   </si>
@@ -311,9 +310,6 @@
     <t>Contingencias Comunes</t>
   </si>
   <si>
-    <t>Categoría Profesional</t>
-  </si>
-  <si>
     <t>Ingenieros y Licenciados. Personal de alta dirección no incluido en el artículo 1.3.c) del Estatuto de los Trabajadores</t>
   </si>
   <si>
@@ -359,15 +355,6 @@
     <t>BASE MAXIMA / mes</t>
   </si>
   <si>
-    <t>Numero Trabajadores</t>
-  </si>
-  <si>
-    <t>Grupo Cotizacion</t>
-  </si>
-  <si>
-    <t>Area Trabajo</t>
-  </si>
-  <si>
     <t>BCCC</t>
   </si>
   <si>
@@ -474,22 +461,37 @@
   </si>
   <si>
     <t>Trabajadores FP, auxiliares…</t>
+  </si>
+  <si>
+    <t>Material de oficina</t>
+  </si>
+  <si>
+    <t>CATEGORÍA PROFESIONAL</t>
+  </si>
+  <si>
+    <t>AREA TRABAJO</t>
+  </si>
+  <si>
+    <t>GRUPO</t>
+  </si>
+  <si>
+    <t>NO SE SI DIVIDIR ENTRE 12 O 14 PAGAS</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="7">
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="164" formatCode="_-* #,##0.00\ &quot;€&quot;_-;\-* #,##0.00\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
-    <numFmt numFmtId="165" formatCode="_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
-    <numFmt numFmtId="166" formatCode="_([$€-2]\ * #,##0.00_);_([$€-2]\ * \(#,##0.00\);_([$€-2]\ * &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="167" formatCode="_(&quot;$&quot;* #,##0.00000_);_(&quot;$&quot;* \(#,##0.00000\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="168" formatCode="_(&quot;$&quot;* #,##0.00&quot; mW/h&quot;_);_(&quot;$&quot;* \(#,##0.00\ &quot;mW/h&quot;\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="169" formatCode="0.00\ &quot;mW/h&quot;"/>
+    <numFmt numFmtId="44" formatCode="_-* #,##0.00\ &quot;€&quot;_-;\-* #,##0.00\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="_([$€-2]\ * #,##0.00_);_([$€-2]\ * \(#,##0.00\);_([$€-2]\ * &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="166" formatCode="_(&quot;$&quot;* #,##0.00000_);_(&quot;$&quot;* \(#,##0.00000\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="167" formatCode="_(&quot;$&quot;* #,##0.00&quot; mW/h&quot;_);_(&quot;$&quot;* \(#,##0.00\ &quot;mW/h&quot;\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="168" formatCode="0.00\ &quot;mW/h&quot;"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -561,8 +563,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -606,6 +615,11 @@
       <patternFill patternType="solid">
         <fgColor theme="0"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
       </patternFill>
     </fill>
   </fills>
@@ -755,14 +769,15 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="5">
+  <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -773,11 +788,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -785,11 +800,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="44" fontId="2" fillId="2" borderId="1" xfId="2" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="1" xfId="2" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="1" xfId="2" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="1" xfId="2" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="7" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -826,50 +841,50 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="6" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="7" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="7" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="44" fontId="2" fillId="5" borderId="1" xfId="2" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="2" fillId="5" borderId="1" xfId="2" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -878,45 +893,70 @@
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="1" xfId="2" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="44" fontId="2" fillId="2" borderId="1" xfId="2" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="1" xfId="2" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="2" fillId="5" borderId="11" xfId="4" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="9" fillId="4" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="2" fillId="5" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="44" fontId="2" fillId="5" borderId="11" xfId="4" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="44" fontId="9" fillId="4" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="2" fillId="5" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="164" fontId="10" fillId="9" borderId="0" xfId="5" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="5">
-    <cellStyle name="Currency" xfId="1" builtinId="4"/>
-    <cellStyle name="Good" xfId="3" builtinId="26"/>
+  <cellStyles count="6">
+    <cellStyle name="Bueno" xfId="3" builtinId="26"/>
+    <cellStyle name="Incorrecto" xfId="5" builtinId="27"/>
+    <cellStyle name="Moneda" xfId="1" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Note" xfId="4" builtinId="10"/>
+    <cellStyle name="Notas" xfId="4" builtinId="10"/>
     <cellStyle name="Total" xfId="2" builtinId="25"/>
   </cellStyles>
   <dxfs count="38">
     <dxf>
-      <font>
-        <b/>
-      </font>
-      <numFmt numFmtId="164" formatCode="_-* #,##0.00\ &quot;€&quot;_-;\-* #,##0.00\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
         <b/>
       </font>
-      <numFmt numFmtId="164" formatCode="_-* #,##0.00\ &quot;€&quot;_-;\-* #,##0.00\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
+      <numFmt numFmtId="34" formatCode="_-* #,##0.00\ &quot;€&quot;_-;\-* #,##0.00\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <numFmt numFmtId="34" formatCode="_-* #,##0.00\ &quot;€&quot;_-;\-* #,##0.00\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
       <border outline="0">
         <left style="thin">
           <color rgb="FFB2B2B2"/>
@@ -927,14 +967,14 @@
       <font>
         <b/>
       </font>
-      <numFmt numFmtId="164" formatCode="_-* #,##0.00\ &quot;€&quot;_-;\-* #,##0.00\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
+      <numFmt numFmtId="34" formatCode="_-* #,##0.00\ &quot;€&quot;_-;\-* #,##0.00\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode="_-* #,##0.00\ &quot;€&quot;_-;\-* #,##0.00\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
+      <numFmt numFmtId="34" formatCode="_-* #,##0.00\ &quot;€&quot;_-;\-* #,##0.00\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="34" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+      <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -958,28 +998,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="34" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
+      <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -1010,7 +1029,7 @@
         <name val="Calibri"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="164" formatCode="_-* #,##0.00\ &quot;€&quot;_-;\-* #,##0.00\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
+      <numFmt numFmtId="34" formatCode="_-* #,##0.00\ &quot;€&quot;_-;\-* #,##0.00\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="medium">
@@ -1073,7 +1092,7 @@
         <name val="Calibri"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="164" formatCode="_-* #,##0.00\ &quot;€&quot;_-;\-* #,##0.00\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
+      <numFmt numFmtId="34" formatCode="_-* #,##0.00\ &quot;€&quot;_-;\-* #,##0.00\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="medium">
@@ -1106,7 +1125,7 @@
         <name val="Calibri"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="164" formatCode="_-* #,##0.00\ &quot;€&quot;_-;\-* #,##0.00\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
+      <numFmt numFmtId="34" formatCode="_-* #,##0.00\ &quot;€&quot;_-;\-* #,##0.00\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="medium">
@@ -1245,16 +1264,16 @@
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="166" formatCode="_([$€-2]\ * #,##0.00_);_([$€-2]\ * \(#,##0.00\);_([$€-2]\ * &quot;-&quot;??_);_(@_)"/>
+      <numFmt numFmtId="165" formatCode="_([$€-2]\ * #,##0.00_);_([$€-2]\ * \(#,##0.00\);_([$€-2]\ * &quot;-&quot;??_);_(@_)"/>
     </dxf>
     <dxf>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="34" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+      <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="34" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+      <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     </dxf>
     <dxf>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -1410,14 +1429,14 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>5573486</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>185056</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>1427317</xdr:colOff>
-      <xdr:row>60</xdr:row>
-      <xdr:rowOff>43542</xdr:rowOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>60860</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1454,14 +1473,14 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>1513114</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>155665</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>1426028</xdr:colOff>
-      <xdr:row>70</xdr:row>
-      <xdr:rowOff>91957</xdr:rowOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>109275</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1498,14 +1517,14 @@
     <xdr:from>
       <xdr:col>15</xdr:col>
       <xdr:colOff>1447800</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>23448</xdr:colOff>
-      <xdr:row>51</xdr:row>
-      <xdr:rowOff>99547</xdr:rowOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>75402</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>168820</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1542,16 +1561,16 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table4" displayName="Table4" ref="A61:E72" totalsRowShown="0">
-  <autoFilter ref="A61:E72" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table4" displayName="Table4" ref="A61:E72" totalsRowShown="0">
+  <autoFilter ref="A61:E72"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Concepto" dataDxfId="37"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Precio/unidad"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Número De Unidades" dataDxfId="36">
+    <tableColumn id="1" name="Concepto" dataDxfId="37"/>
+    <tableColumn id="2" name="Precio/unidad"/>
+    <tableColumn id="3" name="Número De Unidades" dataDxfId="36">
       <calculatedColumnFormula>E47</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Tipo De Pago"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Costo Total Por Concepto" dataDxfId="35">
+    <tableColumn id="4" name="Tipo De Pago"/>
+    <tableColumn id="6" name="Costo Total Por Concepto" dataDxfId="35">
       <calculatedColumnFormula>Table4[[#This Row],[Precio/unidad]]*Table4[[#This Row],[Número De Unidades]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1560,14 +1579,14 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table1" displayName="Table1" ref="A2:E57" totalsRowShown="0">
-  <autoFilter ref="A2:E57" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A2:E57" totalsRowShown="0">
+  <autoFilter ref="A2:E57"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Concepto" dataDxfId="34"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Precio/unidad" dataDxfId="33"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="Número De Unidades"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="Tipo De Pago"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="Costo Total Por Concepto" dataDxfId="32">
+    <tableColumn id="1" name="Concepto" dataDxfId="34"/>
+    <tableColumn id="2" name="Precio/unidad" dataDxfId="33"/>
+    <tableColumn id="3" name="Número De Unidades"/>
+    <tableColumn id="6" name="Tipo De Pago"/>
+    <tableColumn id="4" name="Costo Total Por Concepto" dataDxfId="32">
       <calculatedColumnFormula>Table1[[#This Row],[Precio/unidad]]*Table1[[#This Row],[Número De Unidades]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1576,51 +1595,51 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Tabla2" displayName="Tabla2" ref="A1:E21" totalsRowShown="0" headerRowDxfId="31" dataDxfId="29" headerRowBorderDxfId="30" tableBorderDxfId="28" totalsRowBorderDxfId="27">
-  <autoFilter ref="A1:E21" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabla2" displayName="Tabla2" ref="A1:E21" totalsRowShown="0" headerRowDxfId="31" dataDxfId="29" headerRowBorderDxfId="30" tableBorderDxfId="28" totalsRowBorderDxfId="27">
+  <autoFilter ref="A1:E21"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="Concepto" dataDxfId="26"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="Salario Según Convenio" dataDxfId="25"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="Seguridad Social" dataDxfId="24"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="Horas Trabajadas" dataDxfId="23"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0200-000005000000}" name="Costo Total Por Concepto" dataDxfId="22"/>
+    <tableColumn id="1" name="Concepto" dataDxfId="26"/>
+    <tableColumn id="2" name="Salario Según Convenio" dataDxfId="25"/>
+    <tableColumn id="3" name="Seguridad Social" dataDxfId="24"/>
+    <tableColumn id="4" name="Horas Trabajadas" dataDxfId="23"/>
+    <tableColumn id="5" name="Costo Total Por Concepto" dataDxfId="22"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Table5" displayName="Table5" ref="G1:J13" totalsRowShown="0" headerRowDxfId="21" dataDxfId="20">
-  <autoFilter ref="G1:J13" xr:uid="{00000000-0009-0000-0100-000005000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Table5" displayName="Table5" ref="G1:J13" totalsRowShown="0" headerRowDxfId="5" dataDxfId="4">
+  <autoFilter ref="G1:J13"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="GRUPO COTIZACION" dataDxfId="19"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0300-000008000000}" name="Categoría Profesional" dataDxfId="18"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0300-000003000000}" name="BASE MINIMA / mes" dataDxfId="17"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0300-000004000000}" name="BASE MAXIMA / mes" dataDxfId="16"/>
+    <tableColumn id="1" name="GRUPO COTIZACION" dataDxfId="3"/>
+    <tableColumn id="8" name="CATEGORÍA PROFESIONAL" dataDxfId="2"/>
+    <tableColumn id="3" name="BASE MINIMA / mes" dataDxfId="1"/>
+    <tableColumn id="4" name="BASE MAXIMA / mes" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{00000000-000C-0000-FFFF-FFFF04000000}" name="Table6" displayName="Table6" ref="G15:Q22" totalsRowShown="0" headerRowDxfId="15" dataDxfId="14">
-  <autoFilter ref="G15:Q22" xr:uid="{00000000-0009-0000-0100-000006000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Table6" displayName="Table6" ref="G15:Q23" totalsRowShown="0" headerRowDxfId="21" dataDxfId="20">
+  <autoFilter ref="G15:Q23"/>
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0400-000001000000}" name="Grupo Cotizacion" dataDxfId="13"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0400-000002000000}" name="Area Trabajo" dataDxfId="12"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0400-000003000000}" name="Numero Trabajadores" dataDxfId="11"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0400-000004000000}" name="BCCC" dataDxfId="10">
-      <calculatedColumnFormula>K24</calculatedColumnFormula>
+    <tableColumn id="1" name="AREA TRABAJO" dataDxfId="19"/>
+    <tableColumn id="13" name="GRUPO" dataDxfId="6"/>
+    <tableColumn id="2" name="GRUPO COTIZACION" dataDxfId="18"/>
+    <tableColumn id="4" name="BCCC" dataDxfId="17">
+      <calculatedColumnFormula>K25</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0400-000006000000}" name="Contingencias Comunes" dataDxfId="9"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0400-000007000000}" name="FOGASA" dataDxfId="8"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0400-000008000000}" name="Formacion Profesional" dataDxfId="7"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0400-000009000000}" name="MEI" dataDxfId="6"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0400-00000A000000}" name="Desempleo" dataDxfId="5"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0400-00000B000000}" name="Subtotal a pagar SS total" dataDxfId="4">
+    <tableColumn id="6" name="Contingencias Comunes" dataDxfId="16"/>
+    <tableColumn id="7" name="FOGASA" dataDxfId="15"/>
+    <tableColumn id="8" name="Formacion Profesional" dataDxfId="14"/>
+    <tableColumn id="9" name="MEI" dataDxfId="13"/>
+    <tableColumn id="10" name="Desempleo" dataDxfId="12"/>
+    <tableColumn id="11" name="Subtotal a pagar SS total" dataDxfId="11">
       <calculatedColumnFormula>Table6[[#This Row],[BCCC]]*Table6[[#This Row],[Contingencias Comunes]]+Table6[[#This Row],[BCCC]]*Table6[[#This Row],[Desempleo]]+Table6[[#This Row],[BCCC]]*Table6[[#This Row],[FOGASA]]+Table6[[#This Row],[BCCC]]*Table6[[#This Row],[Formacion Profesional]]+Table6[[#This Row],[BCCC]]*Table6[[#This Row],[MEI]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0400-000005000000}" name="Subtotal a pagar BCCC total" dataDxfId="3">
+    <tableColumn id="5" name="Subtotal a pagar BCCC total" dataDxfId="10">
       <calculatedColumnFormula>SUM(Q11:Q15)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1629,16 +1648,16 @@
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{00000000-000C-0000-FFFF-FFFF05000000}" name="Tabla7" displayName="Tabla7" ref="A1:C2" totalsRowShown="0">
-  <autoFilter ref="A1:C2" xr:uid="{00000000-0009-0000-0100-000007000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="Tabla7" displayName="Tabla7" ref="A1:C2" totalsRowShown="0">
+  <autoFilter ref="A1:C2"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0500-000001000000}" name="PRESUPUESTO DE MATERIAL" dataDxfId="2">
+    <tableColumn id="1" name="PRESUPUESTO DE MATERIAL" dataDxfId="9">
       <calculatedColumnFormula>'Presupuesto De Material'!E57+'Presupuesto De Material'!E72</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0500-000002000000}" name="PRESUPUESTO DE MANO DE OBRA" dataDxfId="1">
-      <calculatedColumnFormula>'Presupuesto De Mano De Obra'!Q22+'Presupuesto De Mano De Obra'!P22+'Presupuesto De Mano De Obra'!E21</calculatedColumnFormula>
+    <tableColumn id="2" name="PRESUPUESTO DE MANO DE OBRA" dataDxfId="8">
+      <calculatedColumnFormula>'Presupuesto De Mano De Obra'!Q23+'Presupuesto De Mano De Obra'!P23+'Presupuesto De Mano De Obra'!E21</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0500-000003000000}" name="TOTAL" dataDxfId="0">
+    <tableColumn id="3" name="TOTAL" dataDxfId="7">
       <calculatedColumnFormula>A2+B2</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1942,47 +1961,47 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X77"/>
   <sheetViews>
-    <sheetView topLeftCell="A29" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C37" sqref="C37"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="54.5546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="54.5703125" style="1" customWidth="1"/>
     <col min="2" max="2" width="21" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="28.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.33203125" customWidth="1"/>
-    <col min="5" max="5" width="34.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="24.88671875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="32.33203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="60.109375" customWidth="1"/>
-    <col min="10" max="10" width="25.109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="23.6640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="26.33203125" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="23.6640625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="20.5546875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="17.33203125" customWidth="1"/>
-    <col min="17" max="17" width="18.5546875" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="17.33203125" customWidth="1"/>
-    <col min="19" max="19" width="98.109375" customWidth="1"/>
-    <col min="20" max="20" width="17.33203125" customWidth="1"/>
-    <col min="21" max="21" width="15.33203125" customWidth="1"/>
-    <col min="36" max="36" width="82.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="28.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.28515625" customWidth="1"/>
+    <col min="5" max="5" width="34.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="24.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="32.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="60.140625" customWidth="1"/>
+    <col min="10" max="10" width="25.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="23.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="26.28515625" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="23.7109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="20.5703125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="17.28515625" customWidth="1"/>
+    <col min="17" max="17" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="17.28515625" customWidth="1"/>
+    <col min="19" max="19" width="98.140625" customWidth="1"/>
+    <col min="20" max="20" width="17.28515625" customWidth="1"/>
+    <col min="21" max="21" width="15.28515625" customWidth="1"/>
+    <col min="36" max="36" width="82.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="46.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:13" ht="46.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="55" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="B1" s="55"/>
       <c r="C1" s="55"/>
       <c r="D1" s="55"/>
       <c r="E1" s="55"/>
     </row>
-    <row r="2" spans="1:13" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1999,16 +2018,16 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B3" s="4"/>
       <c r="M3" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>45</v>
       </c>
@@ -2026,10 +2045,10 @@
         <v>120000</v>
       </c>
       <c r="M4" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>46</v>
       </c>
@@ -2047,13 +2066,19 @@
         <v>17100</v>
       </c>
       <c r="H5" t="s">
-        <v>136</v>
+        <v>132</v>
+      </c>
+      <c r="I5" t="s">
+        <v>133</v>
+      </c>
+      <c r="J5" t="s">
+        <v>145</v>
       </c>
       <c r="M5" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>47</v>
       </c>
@@ -2070,14 +2095,11 @@
         <f>Table1[[#This Row],[Precio/unidad]]*Table1[[#This Row],[Número De Unidades]]</f>
         <v>130</v>
       </c>
-      <c r="H6" t="s">
-        <v>137</v>
-      </c>
       <c r="M6" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>48</v>
       </c>
@@ -2095,10 +2117,10 @@
         <v>100</v>
       </c>
       <c r="M7" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>49</v>
       </c>
@@ -2116,10 +2138,10 @@
         <v>3000</v>
       </c>
       <c r="M8" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>50</v>
       </c>
@@ -2137,10 +2159,10 @@
         <v>900</v>
       </c>
       <c r="M9" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>51</v>
       </c>
@@ -2158,10 +2180,10 @@
         <v>3240</v>
       </c>
       <c r="M10" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>52</v>
       </c>
@@ -2179,7 +2201,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="12" spans="1:13" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:13" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>53</v>
       </c>
@@ -2197,7 +2219,7 @@
         <v>2340</v>
       </c>
     </row>
-    <row r="13" spans="1:13" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:13" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>54</v>
       </c>
@@ -2215,7 +2237,7 @@
         <v>1100</v>
       </c>
     </row>
-    <row r="14" spans="1:13" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:13" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>55</v>
       </c>
@@ -2233,7 +2255,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="15" spans="1:13" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:13" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>56</v>
       </c>
@@ -2251,7 +2273,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="16" spans="1:13" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:13" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>57</v>
       </c>
@@ -2269,7 +2291,7 @@
         <v>1800</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>58</v>
       </c>
@@ -2287,7 +2309,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>59</v>
       </c>
@@ -2305,7 +2327,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>87</v>
       </c>
@@ -2323,7 +2345,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>88</v>
       </c>
@@ -2341,7 +2363,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>89</v>
       </c>
@@ -2359,7 +2381,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>90</v>
       </c>
@@ -2377,7 +2399,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>91</v>
       </c>
@@ -2395,7 +2417,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>30</v>
       </c>
@@ -2413,7 +2435,7 @@
         <v>1600</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>31</v>
       </c>
@@ -2431,7 +2453,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>32</v>
       </c>
@@ -2449,7 +2471,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>33</v>
       </c>
@@ -2467,7 +2489,7 @@
         <v>1260</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>34</v>
       </c>
@@ -2485,7 +2507,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>35</v>
       </c>
@@ -2503,7 +2525,7 @@
         <v>666</v>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>36</v>
       </c>
@@ -2521,7 +2543,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>37</v>
       </c>
@@ -2539,7 +2561,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>38</v>
       </c>
@@ -2557,7 +2579,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="33" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>39</v>
       </c>
@@ -2575,7 +2597,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="34" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>68</v>
       </c>
@@ -2593,7 +2615,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="35" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>40</v>
       </c>
@@ -2611,7 +2633,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="36" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>41</v>
       </c>
@@ -2629,7 +2651,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="37" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>42</v>
       </c>
@@ -2647,7 +2669,7 @@
         <v>3.25</v>
       </c>
     </row>
-    <row r="38" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>43</v>
       </c>
@@ -2666,7 +2688,7 @@
       </c>
       <c r="T38" s="6"/>
     </row>
-    <row r="39" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>44</v>
       </c>
@@ -2685,7 +2707,7 @@
       </c>
       <c r="T39" s="6"/>
     </row>
-    <row r="40" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>63</v>
       </c>
@@ -2703,7 +2725,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="41" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>64</v>
       </c>
@@ -2721,7 +2743,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="42" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>65</v>
       </c>
@@ -2741,7 +2763,7 @@
       <c r="R42" s="5"/>
       <c r="S42" s="5"/>
     </row>
-    <row r="43" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>69</v>
       </c>
@@ -2761,7 +2783,7 @@
       <c r="R43" s="5"/>
       <c r="S43" s="5"/>
     </row>
-    <row r="44" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>70</v>
       </c>
@@ -2781,7 +2803,7 @@
       <c r="R44" s="5"/>
       <c r="T44" s="5"/>
     </row>
-    <row r="45" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>71</v>
       </c>
@@ -2801,7 +2823,7 @@
       <c r="R45" s="5"/>
       <c r="T45" s="5"/>
     </row>
-    <row r="46" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>72</v>
       </c>
@@ -2820,7 +2842,7 @@
       </c>
       <c r="R46" s="5"/>
     </row>
-    <row r="47" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>73</v>
       </c>
@@ -2838,7 +2860,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="48" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>74</v>
       </c>
@@ -2856,7 +2878,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="49" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>75</v>
       </c>
@@ -2874,7 +2896,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="50" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>76</v>
       </c>
@@ -2892,7 +2914,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="51" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>77</v>
       </c>
@@ -2910,7 +2932,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="52" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>78</v>
       </c>
@@ -2928,7 +2950,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="53" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>79</v>
       </c>
@@ -2947,7 +2969,7 @@
       </c>
       <c r="R53" s="16"/>
     </row>
-    <row r="54" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>80</v>
       </c>
@@ -2966,7 +2988,7 @@
       </c>
       <c r="R54" s="16"/>
     </row>
-    <row r="55" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>81</v>
       </c>
@@ -2985,9 +3007,9 @@
       </c>
       <c r="R55" s="16"/>
     </row>
-    <row r="56" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="B56" s="4">
         <v>90</v>
@@ -3004,7 +3026,7 @@
       </c>
       <c r="R56" s="16"/>
     </row>
-    <row r="57" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B57" s="13">
         <f>SUBTOTAL(109,B3:B56)</f>
         <v>128767.54124999999</v>
@@ -3019,27 +3041,27 @@
       <c r="U57" s="10"/>
       <c r="V57" s="10"/>
     </row>
-    <row r="58" spans="1:24" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:24" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="R58" s="16"/>
       <c r="S58" s="11"/>
       <c r="T58" s="11"/>
       <c r="U58" s="11"/>
       <c r="V58" s="11"/>
     </row>
-    <row r="59" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:24" x14ac:dyDescent="0.25">
       <c r="R59" s="16"/>
       <c r="S59" s="11"/>
       <c r="T59" s="11"/>
       <c r="U59" s="11"/>
       <c r="V59" s="11"/>
     </row>
-    <row r="60" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:24" x14ac:dyDescent="0.25">
       <c r="S60" s="11"/>
       <c r="T60" s="11"/>
       <c r="U60" s="11"/>
       <c r="V60" s="11"/>
     </row>
-    <row r="61" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
         <v>0</v>
       </c>
@@ -3060,7 +3082,7 @@
       <c r="U61" s="11"/>
       <c r="V61" s="11"/>
     </row>
-    <row r="62" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
         <v>5</v>
       </c>
@@ -3072,7 +3094,7 @@
       <c r="U62" s="11"/>
       <c r="V62" s="11"/>
     </row>
-    <row r="63" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
         <v>29</v>
       </c>
@@ -3093,7 +3115,7 @@
       <c r="W63" s="11"/>
       <c r="X63" s="11"/>
     </row>
-    <row r="64" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
         <v>8</v>
       </c>
@@ -3114,7 +3136,7 @@
       <c r="W64" s="11"/>
       <c r="X64" s="11"/>
     </row>
-    <row r="65" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
         <v>7</v>
       </c>
@@ -3137,9 +3159,9 @@
       <c r="W65" s="11"/>
       <c r="X65" s="11"/>
     </row>
-    <row r="66" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="B66" s="4">
         <v>448</v>
@@ -3159,7 +3181,7 @@
       <c r="W66" s="11"/>
       <c r="X66" s="11"/>
     </row>
-    <row r="67" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
         <v>82</v>
       </c>
@@ -3177,7 +3199,7 @@
         <v>111.16499999999999</v>
       </c>
     </row>
-    <row r="68" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
         <v>83</v>
       </c>
@@ -3195,7 +3217,7 @@
         <v>296.44</v>
       </c>
     </row>
-    <row r="69" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
         <v>84</v>
       </c>
@@ -3214,7 +3236,7 @@
         <v>4856.8437000000004</v>
       </c>
     </row>
-    <row r="70" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
         <v>85</v>
       </c>
@@ -3233,7 +3255,7 @@
         <v>809.47395000000006</v>
       </c>
     </row>
-    <row r="71" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
         <v>86</v>
       </c>
@@ -3253,7 +3275,7 @@
       </c>
       <c r="O71" s="5"/>
     </row>
-    <row r="72" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C72" s="7"/>
       <c r="E72" s="39">
         <f>SUBTOTAL(109,E62:E71)</f>
@@ -3261,19 +3283,19 @@
       </c>
       <c r="O72" s="5"/>
     </row>
-    <row r="73" spans="1:24" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:24" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="O73" s="5"/>
     </row>
-    <row r="74" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:24" x14ac:dyDescent="0.25">
       <c r="O74" s="5"/>
     </row>
-    <row r="75" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:24" x14ac:dyDescent="0.25">
       <c r="O75" s="5"/>
     </row>
-    <row r="76" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:24" x14ac:dyDescent="0.25">
       <c r="O76" s="5"/>
     </row>
-    <row r="77" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A77"/>
     </row>
   </sheetData>
@@ -3281,7 +3303,7 @@
     <mergeCell ref="A1:E1"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E58:E60 E73:E1048576 D62:D1048576 D4:D60" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E58:E60 E73:E1048576 D62:D1048576 D4:D60">
       <formula1>"Unico,Diario,Semanal,Mensual,Anual"</formula1>
     </dataValidation>
   </dataValidations>
@@ -3295,35 +3317,35 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:R79"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:R80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G33" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I67" sqref="I67"/>
+    <sheetView tabSelected="1" topLeftCell="F40" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="T97" sqref="T97"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="44.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="33.44140625" customWidth="1"/>
-    <col min="3" max="3" width="24.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="44.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="33.42578125" customWidth="1"/>
+    <col min="3" max="3" width="24.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="25" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="34.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="41.44140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="37.88671875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="111.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="34.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="41.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="37.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="111.7109375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="35" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="32.44140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="35.6640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="17.6640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="33.44140625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="32.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="35.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="33.42578125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="17.28515625" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="16" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="28.6640625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="26.88671875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="35.42578125" customWidth="1"/>
+    <col min="17" max="17" width="37.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="20.399999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:17" ht="20.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="24" t="s">
         <v>0</v>
       </c>
@@ -3334,7 +3356,7 @@
         <v>16</v>
       </c>
       <c r="D1" s="25" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="E1" s="26" t="s">
         <v>3</v>
@@ -3343,13 +3365,13 @@
         <v>92</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>94</v>
+        <v>146</v>
       </c>
       <c r="I1" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>108</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>109</v>
       </c>
       <c r="K1" s="41"/>
       <c r="L1" s="41"/>
@@ -3358,7 +3380,7 @@
       <c r="O1" s="1"/>
       <c r="P1" s="1"/>
     </row>
-    <row r="2" spans="1:17" ht="20.399999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:17" ht="20.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="20" t="s">
         <v>21</v>
       </c>
@@ -3370,7 +3392,7 @@
         <v>1</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="I2" s="44">
         <v>1759.5</v>
@@ -3385,7 +3407,7 @@
       <c r="O2" s="1"/>
       <c r="P2" s="1"/>
     </row>
-    <row r="3" spans="1:17" ht="20.399999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:17" ht="20.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="21" t="s">
         <v>17</v>
       </c>
@@ -3405,7 +3427,7 @@
         <v>2</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="I3" s="44">
         <v>1459.2</v>
@@ -3420,7 +3442,7 @@
       <c r="O3" s="1"/>
       <c r="P3" s="1"/>
     </row>
-    <row r="4" spans="1:17" ht="20.399999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:17" ht="20.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="22" t="s">
         <v>19</v>
       </c>
@@ -3440,7 +3462,7 @@
         <v>3</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="I4" s="44">
         <v>1269.3</v>
@@ -3455,7 +3477,7 @@
       <c r="O4" s="1"/>
       <c r="P4" s="1"/>
     </row>
-    <row r="5" spans="1:17" ht="20.399999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:17" ht="20.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="21" t="s">
         <v>23</v>
       </c>
@@ -3475,7 +3497,7 @@
         <v>4</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="I5" s="44">
         <v>1260</v>
@@ -3490,7 +3512,7 @@
       <c r="O5" s="1"/>
       <c r="P5" s="1"/>
     </row>
-    <row r="6" spans="1:17" ht="20.399999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:17" ht="20.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="22" t="s">
         <v>22</v>
       </c>
@@ -3510,7 +3532,7 @@
         <v>5</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="I6" s="44">
         <v>1260</v>
@@ -3525,7 +3547,7 @@
       <c r="O6" s="1"/>
       <c r="P6" s="1"/>
     </row>
-    <row r="7" spans="1:17" ht="20.399999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:17" ht="20.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="23" t="s">
         <v>20</v>
       </c>
@@ -3537,7 +3559,7 @@
         <v>6</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="I7" s="44">
         <v>1260</v>
@@ -3552,7 +3574,7 @@
       <c r="O7" s="1"/>
       <c r="P7" s="1"/>
     </row>
-    <row r="8" spans="1:17" ht="20.399999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:17" ht="20.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="22" t="s">
         <v>18</v>
       </c>
@@ -3572,7 +3594,7 @@
         <v>7</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="I8" s="44">
         <v>1260</v>
@@ -3587,7 +3609,7 @@
       <c r="O8" s="1"/>
       <c r="P8" s="1"/>
     </row>
-    <row r="9" spans="1:17" ht="20.399999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:17" ht="20.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="21" t="s">
         <v>26</v>
       </c>
@@ -3606,10 +3628,10 @@
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
       <c r="I9" s="45" t="s">
+        <v>105</v>
+      </c>
+      <c r="J9" s="45" t="s">
         <v>106</v>
-      </c>
-      <c r="J9" s="45" t="s">
-        <v>107</v>
       </c>
       <c r="K9" s="41"/>
       <c r="L9" s="1"/>
@@ -3618,7 +3640,7 @@
       <c r="O9" s="1"/>
       <c r="P9" s="1"/>
     </row>
-    <row r="10" spans="1:17" ht="20.399999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:17" ht="20.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="22" t="s">
         <v>24</v>
       </c>
@@ -3638,7 +3660,7 @@
         <v>8</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="I10" s="44">
         <v>42</v>
@@ -3653,7 +3675,7 @@
       <c r="O10" s="1"/>
       <c r="P10" s="1"/>
     </row>
-    <row r="11" spans="1:17" ht="20.399999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:17" ht="20.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="23" t="s">
         <v>25</v>
       </c>
@@ -3665,7 +3687,7 @@
         <v>9</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="I11" s="44">
         <v>42</v>
@@ -3680,7 +3702,7 @@
       <c r="O11" s="1"/>
       <c r="P11" s="1"/>
     </row>
-    <row r="12" spans="1:17" ht="20.399999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:17" ht="20.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="22" t="s">
         <v>27</v>
       </c>
@@ -3691,7 +3713,7 @@
         <v>3.28</v>
       </c>
       <c r="D12" s="18" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="E12" s="35">
         <v>0</v>
@@ -3700,7 +3722,7 @@
         <v>10</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="I12" s="44">
         <v>42</v>
@@ -3715,7 +3737,7 @@
       <c r="O12" s="1"/>
       <c r="P12" s="1"/>
     </row>
-    <row r="13" spans="1:17" ht="20.399999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:17" ht="20.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="21" t="s">
         <v>6</v>
       </c>
@@ -3726,7 +3748,7 @@
         <v>3.28</v>
       </c>
       <c r="D13" s="18" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="E13" s="35">
         <v>0</v>
@@ -3735,7 +3757,7 @@
         <v>11</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="I13" s="44">
         <v>42</v>
@@ -3750,7 +3772,7 @@
       <c r="O13" s="1"/>
       <c r="P13" s="1"/>
     </row>
-    <row r="14" spans="1:17" ht="20.399999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:17" ht="20.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="22" t="s">
         <v>14</v>
       </c>
@@ -3761,7 +3783,7 @@
         <v>3.28</v>
       </c>
       <c r="D14" s="18" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="E14" s="35">
         <v>0</v>
@@ -3769,7 +3791,9 @@
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
-      <c r="J14" s="1"/>
+      <c r="J14" s="1" t="s">
+        <v>149</v>
+      </c>
       <c r="K14" s="1"/>
       <c r="L14" s="1"/>
       <c r="M14" s="1"/>
@@ -3777,9 +3801,9 @@
       <c r="O14" s="1"/>
       <c r="P14" s="1"/>
     </row>
-    <row r="15" spans="1:17" ht="20.399999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:17" ht="20.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="21" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="B15" s="31">
         <v>10.77</v>
@@ -3788,22 +3812,22 @@
         <v>3.28</v>
       </c>
       <c r="D15" s="18" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="E15" s="35">
         <v>0</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>111</v>
+        <v>147</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>112</v>
+        <v>148</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>110</v>
+        <v>92</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="K15" s="1" t="s">
         <v>93</v>
@@ -3812,22 +3836,22 @@
         <v>28</v>
       </c>
       <c r="M15" s="1" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="N15" s="1" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="O15" s="1" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="P15" s="1" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="Q15" s="1" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17" ht="20.399999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" ht="20.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="22" t="s">
         <v>10</v>
       </c>
@@ -3838,23 +3862,23 @@
         <v>3.28</v>
       </c>
       <c r="D16" s="18" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="E16" s="35">
         <v>0</v>
       </c>
       <c r="G16" s="1">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H16" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I16" s="1">
         <v>1</v>
       </c>
-      <c r="J16" s="44">
-        <f>K23</f>
-        <v>0</v>
+      <c r="J16" s="56">
+        <f>21057.94/12</f>
+        <v>1754.8283333333331</v>
       </c>
       <c r="K16" s="46">
         <v>0.23599999999999999</v>
@@ -3871,16 +3895,16 @@
       <c r="O16" s="46">
         <v>5.5E-2</v>
       </c>
-      <c r="P16" s="44">
-        <f>( Table6[[#This Row],[BCCC]]*Table6[[#This Row],[Contingencias Comunes]]+Table6[[#This Row],[BCCC]]*Table6[[#This Row],[Desempleo]]+Table6[[#This Row],[BCCC]]*Table6[[#This Row],[FOGASA]]+Table6[[#This Row],[BCCC]]*Table6[[#This Row],[Formacion Profesional]]+Table6[[#This Row],[BCCC]]*Table6[[#This Row],[MEI]] ) * Table6[[#This Row],[Numero Trabajadores]]</f>
-        <v>0</v>
-      </c>
-      <c r="Q16" s="49">
-        <f>Table6[[#This Row],[BCCC]]*Table6[[#This Row],[Numero Trabajadores]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17" ht="20.399999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="P16" s="44" t="e">
+        <f>( Table6[[#This Row],[BCCC]]*Table6[[#This Row],[Contingencias Comunes]]+Table6[[#This Row],[BCCC]]*Table6[[#This Row],[Desempleo]]+Table6[[#This Row],[BCCC]]*Table6[[#This Row],[FOGASA]]+Table6[[#This Row],[BCCC]]*Table6[[#This Row],[Formacion Profesional]]+Table6[[#This Row],[BCCC]]*Table6[[#This Row],[MEI]] ) * #REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="Q16" s="49" t="e">
+        <f>Table6[[#This Row],[BCCC]]*#REF!</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" ht="20.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="21" t="s">
         <v>9</v>
       </c>
@@ -3891,23 +3915,23 @@
         <v>3.28</v>
       </c>
       <c r="D17" s="18" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="E17" s="35">
         <v>0</v>
       </c>
       <c r="G17" s="1">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="H17" s="1">
         <v>2</v>
       </c>
       <c r="I17" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J17" s="44">
-        <f>K23</f>
-        <v>0</v>
+        <f>17774.91/12</f>
+        <v>1481.2425000000001</v>
       </c>
       <c r="K17" s="46">
         <v>0.23599999999999999</v>
@@ -3924,16 +3948,16 @@
       <c r="O17" s="46">
         <v>5.5E-2</v>
       </c>
-      <c r="P17" s="44">
-        <f>( Table6[[#This Row],[BCCC]]*Table6[[#This Row],[Contingencias Comunes]]+Table6[[#This Row],[BCCC]]*Table6[[#This Row],[Desempleo]]+Table6[[#This Row],[BCCC]]*Table6[[#This Row],[FOGASA]]+Table6[[#This Row],[BCCC]]*Table6[[#This Row],[Formacion Profesional]]+Table6[[#This Row],[BCCC]]*Table6[[#This Row],[MEI]] ) * Table6[[#This Row],[Numero Trabajadores]]</f>
-        <v>0</v>
-      </c>
-      <c r="Q17" s="49">
-        <f>Table6[[#This Row],[BCCC]]*Table6[[#This Row],[Numero Trabajadores]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17" ht="20.399999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="P17" s="44" t="e">
+        <f>( Table6[[#This Row],[BCCC]]*Table6[[#This Row],[Contingencias Comunes]]+Table6[[#This Row],[BCCC]]*Table6[[#This Row],[Desempleo]]+Table6[[#This Row],[BCCC]]*Table6[[#This Row],[FOGASA]]+Table6[[#This Row],[BCCC]]*Table6[[#This Row],[Formacion Profesional]]+Table6[[#This Row],[BCCC]]*Table6[[#This Row],[MEI]] ) * #REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="Q17" s="49" t="e">
+        <f>Table6[[#This Row],[BCCC]]*#REF!</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" ht="20.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="22" t="s">
         <v>11</v>
       </c>
@@ -3944,7 +3968,7 @@
         <v>3.28</v>
       </c>
       <c r="D18" s="18" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="E18" s="35">
         <v>0</v>
@@ -3953,14 +3977,14 @@
         <v>3</v>
       </c>
       <c r="H18" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I18" s="1">
         <v>2</v>
       </c>
       <c r="J18" s="44">
-        <f>K24</f>
-        <v>0</v>
+        <f>27147.12/12</f>
+        <v>2262.2599999999998</v>
       </c>
       <c r="K18" s="46">
         <v>0.23599999999999999</v>
@@ -3977,16 +4001,16 @@
       <c r="O18" s="46">
         <v>5.5E-2</v>
       </c>
-      <c r="P18" s="44">
-        <f>( Table6[[#This Row],[BCCC]]*Table6[[#This Row],[Contingencias Comunes]]+Table6[[#This Row],[BCCC]]*Table6[[#This Row],[Desempleo]]+Table6[[#This Row],[BCCC]]*Table6[[#This Row],[FOGASA]]+Table6[[#This Row],[BCCC]]*Table6[[#This Row],[Formacion Profesional]]+Table6[[#This Row],[BCCC]]*Table6[[#This Row],[MEI]] ) * Table6[[#This Row],[Numero Trabajadores]]</f>
-        <v>0</v>
-      </c>
-      <c r="Q18" s="49">
-        <f>Table6[[#This Row],[BCCC]]*Table6[[#This Row],[Numero Trabajadores]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17" ht="20.399999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="P18" s="44" t="e">
+        <f>( Table6[[#This Row],[BCCC]]*Table6[[#This Row],[Contingencias Comunes]]+Table6[[#This Row],[BCCC]]*Table6[[#This Row],[Desempleo]]+Table6[[#This Row],[BCCC]]*Table6[[#This Row],[FOGASA]]+Table6[[#This Row],[BCCC]]*Table6[[#This Row],[Formacion Profesional]]+Table6[[#This Row],[BCCC]]*Table6[[#This Row],[MEI]] ) * #REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="Q18" s="49" t="e">
+        <f>Table6[[#This Row],[BCCC]]*#REF!</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" ht="20.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="21" t="s">
         <v>12</v>
       </c>
@@ -3997,22 +4021,23 @@
         <v>3.28</v>
       </c>
       <c r="D19" s="18" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="E19" s="35">
         <v>0</v>
       </c>
       <c r="G19" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H19" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I19" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J19" s="44">
-        <v>1759.5</v>
+        <f>27147.12/12</f>
+        <v>2262.2599999999998</v>
       </c>
       <c r="K19" s="46">
         <v>0.23599999999999999</v>
@@ -4031,14 +4056,14 @@
       </c>
       <c r="P19" s="44">
         <f>Table6[[#This Row],[BCCC]]*Table6[[#This Row],[Contingencias Comunes]]+Table6[[#This Row],[BCCC]]*Table6[[#This Row],[Desempleo]]+Table6[[#This Row],[BCCC]]*Table6[[#This Row],[FOGASA]]+Table6[[#This Row],[BCCC]]*Table6[[#This Row],[Formacion Profesional]]+Table6[[#This Row],[BCCC]]*Table6[[#This Row],[MEI]]</f>
-        <v>536.29560000000004</v>
-      </c>
-      <c r="Q19" s="49">
-        <f>Table6[[#This Row],[BCCC]]*Table6[[#This Row],[Numero Trabajadores]]</f>
-        <v>1759.5</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" ht="20.399999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+        <v>689.53684800000008</v>
+      </c>
+      <c r="Q19" s="49" t="e">
+        <f>Table6[[#This Row],[BCCC]]*#REF!</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" ht="20.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="27" t="s">
         <v>13</v>
       </c>
@@ -4049,23 +4074,23 @@
         <v>3.28</v>
       </c>
       <c r="D20" s="28" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="E20" s="37">
         <v>0</v>
       </c>
       <c r="G20" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H20" s="1">
+        <v>3</v>
+      </c>
+      <c r="I20" s="1">
         <v>4</v>
       </c>
-      <c r="I20" s="1">
-        <v>2</v>
-      </c>
       <c r="J20" s="44">
-        <f>K25</f>
-        <v>0</v>
+        <f>27147.12/12</f>
+        <v>2262.2599999999998</v>
       </c>
       <c r="K20" s="46">
         <v>0.23599999999999999</v>
@@ -4082,16 +4107,16 @@
       <c r="O20" s="46">
         <v>5.5E-2</v>
       </c>
-      <c r="P20" s="44">
-        <f>( Table6[[#This Row],[BCCC]]*Table6[[#This Row],[Contingencias Comunes]]+Table6[[#This Row],[BCCC]]*Table6[[#This Row],[Desempleo]]+Table6[[#This Row],[BCCC]]*Table6[[#This Row],[FOGASA]]+Table6[[#This Row],[BCCC]]*Table6[[#This Row],[Formacion Profesional]]+Table6[[#This Row],[BCCC]]*Table6[[#This Row],[MEI]] ) * Table6[[#This Row],[Numero Trabajadores]]</f>
-        <v>0</v>
-      </c>
-      <c r="Q20" s="49">
-        <f>Table6[[#This Row],[BCCC]]*Table6[[#This Row],[Numero Trabajadores]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="P20" s="44" t="e">
+        <f>( Table6[[#This Row],[BCCC]]*Table6[[#This Row],[Contingencias Comunes]]+Table6[[#This Row],[BCCC]]*Table6[[#This Row],[Desempleo]]+Table6[[#This Row],[BCCC]]*Table6[[#This Row],[FOGASA]]+Table6[[#This Row],[BCCC]]*Table6[[#This Row],[Formacion Profesional]]+Table6[[#This Row],[BCCC]]*Table6[[#This Row],[MEI]] ) * #REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="Q20" s="49" t="e">
+        <f>Table6[[#This Row],[BCCC]]*#REF!</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="38"/>
       <c r="B21" s="33"/>
       <c r="C21" s="33"/>
@@ -4101,17 +4126,17 @@
         <v>5310.9</v>
       </c>
       <c r="G21" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H21" s="1">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I21" s="1">
         <v>1</v>
       </c>
       <c r="J21" s="44">
-        <f>K26</f>
-        <v>0</v>
+        <f>28959.34/12</f>
+        <v>2413.2783333333332</v>
       </c>
       <c r="K21" s="46">
         <v>0.23599999999999999</v>
@@ -4128,49 +4153,65 @@
       <c r="O21" s="46">
         <v>5.5E-2</v>
       </c>
-      <c r="P21" s="44">
-        <f>( Table6[[#This Row],[BCCC]]*Table6[[#This Row],[Contingencias Comunes]]+Table6[[#This Row],[BCCC]]*Table6[[#This Row],[Desempleo]]+Table6[[#This Row],[BCCC]]*Table6[[#This Row],[FOGASA]]+Table6[[#This Row],[BCCC]]*Table6[[#This Row],[Formacion Profesional]]+Table6[[#This Row],[BCCC]]*Table6[[#This Row],[MEI]] ) * Table6[[#This Row],[Numero Trabajadores]]</f>
-        <v>0</v>
-      </c>
-      <c r="Q21" s="49">
-        <f>Table6[[#This Row],[BCCC]]*Table6[[#This Row],[Numero Trabajadores]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="P21" s="44" t="e">
+        <f>( Table6[[#This Row],[BCCC]]*Table6[[#This Row],[Contingencias Comunes]]+Table6[[#This Row],[BCCC]]*Table6[[#This Row],[Desempleo]]+Table6[[#This Row],[BCCC]]*Table6[[#This Row],[FOGASA]]+Table6[[#This Row],[BCCC]]*Table6[[#This Row],[Formacion Profesional]]+Table6[[#This Row],[BCCC]]*Table6[[#This Row],[MEI]] ) * #REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="Q21" s="49" t="e">
+        <f>Table6[[#This Row],[BCCC]]*#REF!</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
-      <c r="G22" s="1"/>
-      <c r="H22" s="1"/>
-      <c r="I22" s="1"/>
-      <c r="J22" s="44"/>
+      <c r="G22" s="1">
+        <v>5</v>
+      </c>
+      <c r="H22" s="1">
+        <v>2</v>
+      </c>
+      <c r="I22" s="1">
+        <v>2</v>
+      </c>
+      <c r="J22" s="44">
+        <f>17418.71/12</f>
+        <v>1451.5591666666667</v>
+      </c>
       <c r="K22" s="46"/>
       <c r="L22" s="46"/>
       <c r="M22" s="46"/>
       <c r="N22" s="46"/>
       <c r="O22" s="46"/>
-      <c r="P22" s="47">
+      <c r="P22" s="44">
+        <f>Table6[[#This Row],[BCCC]]*Table6[[#This Row],[Contingencias Comunes]]+Table6[[#This Row],[BCCC]]*Table6[[#This Row],[Desempleo]]+Table6[[#This Row],[BCCC]]*Table6[[#This Row],[FOGASA]]+Table6[[#This Row],[BCCC]]*Table6[[#This Row],[Formacion Profesional]]+Table6[[#This Row],[BCCC]]*Table6[[#This Row],[MEI]]</f>
+        <v>0</v>
+      </c>
+      <c r="Q22" s="49" t="e">
+        <f>SUM(Q17:Q21)</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="1"/>
+      <c r="G23" s="1"/>
+      <c r="H23" s="1"/>
+      <c r="I23" s="1"/>
+      <c r="J23" s="44"/>
+      <c r="K23" s="46"/>
+      <c r="L23" s="46"/>
+      <c r="M23" s="46"/>
+      <c r="N23" s="46"/>
+      <c r="O23" s="46"/>
+      <c r="P23" s="47" t="e">
         <f>SUBTOTAL(109,P16:P21)</f>
-        <v>536.29560000000004</v>
-      </c>
-      <c r="Q22" s="50">
+        <v>#REF!</v>
+      </c>
+      <c r="Q23" s="50" t="e">
         <f>SUM(Q16:Q21)</f>
-        <v>1759.5</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="1"/>
-      <c r="G23" s="40"/>
-      <c r="H23" s="3"/>
-      <c r="I23" s="3"/>
-      <c r="J23" s="42"/>
-      <c r="K23" s="42"/>
-      <c r="L23" s="42"/>
-      <c r="M23" s="42"/>
-      <c r="N23" s="42"/>
-      <c r="O23" s="43"/>
-      <c r="P23" s="41"/>
-    </row>
-    <row r="24" spans="1:17" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" ht="20.45" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1"/>
       <c r="G24" s="40"/>
       <c r="H24" s="3"/>
@@ -4180,10 +4221,10 @@
       <c r="L24" s="42"/>
       <c r="M24" s="42"/>
       <c r="N24" s="42"/>
-      <c r="O24" s="40"/>
+      <c r="O24" s="43"/>
       <c r="P24" s="41"/>
     </row>
-    <row r="25" spans="1:17" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:17" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1"/>
       <c r="G25" s="40"/>
       <c r="H25" s="3"/>
@@ -4196,7 +4237,7 @@
       <c r="O25" s="40"/>
       <c r="P25" s="41"/>
     </row>
-    <row r="26" spans="1:17" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:17" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1"/>
       <c r="G26" s="40"/>
       <c r="H26" s="3"/>
@@ -4209,20 +4250,20 @@
       <c r="O26" s="40"/>
       <c r="P26" s="41"/>
     </row>
-    <row r="27" spans="1:17" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:17" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="1"/>
-      <c r="G27" s="1"/>
-      <c r="H27" s="1"/>
-      <c r="I27" s="1"/>
-      <c r="J27" s="1"/>
-      <c r="K27" s="1"/>
-      <c r="L27" s="1"/>
-      <c r="M27" s="1"/>
-      <c r="N27" s="41"/>
-      <c r="O27" s="41"/>
-      <c r="P27" s="1"/>
-    </row>
-    <row r="28" spans="1:17" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G27" s="40"/>
+      <c r="H27" s="3"/>
+      <c r="I27" s="3"/>
+      <c r="J27" s="42"/>
+      <c r="K27" s="42"/>
+      <c r="L27" s="42"/>
+      <c r="M27" s="42"/>
+      <c r="N27" s="42"/>
+      <c r="O27" s="40"/>
+      <c r="P27" s="41"/>
+    </row>
+    <row r="28" spans="1:17" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="1"/>
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
@@ -4235,67 +4276,77 @@
       <c r="O28" s="41"/>
       <c r="P28" s="1"/>
     </row>
-    <row r="29" spans="1:17" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:17" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="1"/>
-    </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="G29" s="1"/>
+      <c r="H29" s="1"/>
+      <c r="I29" s="1"/>
+      <c r="J29" s="1"/>
+      <c r="K29" s="1"/>
+      <c r="L29" s="1"/>
+      <c r="M29" s="1"/>
+      <c r="N29" s="41"/>
+      <c r="O29" s="41"/>
+      <c r="P29" s="1"/>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A30" s="1"/>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A31" s="1"/>
     </row>
-    <row r="57" spans="18:18" x14ac:dyDescent="0.3">
+    <row r="57" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R57" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="59" spans="18:18" x14ac:dyDescent="0.3">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="59" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R59" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="74" spans="12:13" x14ac:dyDescent="0.25">
+      <c r="L74" t="s">
+        <v>135</v>
+      </c>
+      <c r="M74" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="75" spans="12:13" x14ac:dyDescent="0.25">
+      <c r="M75" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="76" spans="12:13" x14ac:dyDescent="0.25">
+      <c r="M76" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="73" spans="12:13" x14ac:dyDescent="0.3">
-      <c r="L73" t="s">
+    <row r="77" spans="12:13" x14ac:dyDescent="0.25">
+      <c r="L77" t="s">
         <v>139</v>
       </c>
-      <c r="M73" t="s">
+      <c r="M77" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="74" spans="12:13" x14ac:dyDescent="0.3">
-      <c r="M74" t="s">
+    <row r="78" spans="12:13" x14ac:dyDescent="0.25">
+      <c r="M78" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="75" spans="12:13" x14ac:dyDescent="0.3">
-      <c r="M75" t="s">
+    <row r="79" spans="12:13" x14ac:dyDescent="0.25">
+      <c r="L79" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="76" spans="12:13" x14ac:dyDescent="0.3">
-      <c r="L76" t="s">
+      <c r="M79" t="s">
         <v>143</v>
       </c>
-      <c r="M76" t="s">
+    </row>
+    <row r="80" spans="12:13" x14ac:dyDescent="0.25">
+      <c r="M80" t="s">
         <v>144</v>
-      </c>
-    </row>
-    <row r="77" spans="12:13" x14ac:dyDescent="0.3">
-      <c r="M77" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="78" spans="12:13" x14ac:dyDescent="0.3">
-      <c r="L78" t="s">
-        <v>146</v>
-      </c>
-      <c r="M78" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="79" spans="12:13" x14ac:dyDescent="0.3">
-      <c r="M79" t="s">
-        <v>148</v>
       </c>
     </row>
   </sheetData>
@@ -4311,46 +4362,46 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="B51" sqref="B51"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="28" customWidth="1"/>
-    <col min="2" max="2" width="33.109375" customWidth="1"/>
-    <col min="3" max="3" width="14.5546875" customWidth="1"/>
+    <col min="2" max="2" width="33.140625" customWidth="1"/>
+    <col min="3" max="3" width="14.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="B1" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="C1" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="52">
         <f>'Presupuesto De Material'!E57+'Presupuesto De Material'!E72</f>
         <v>170190.66055</v>
       </c>
-      <c r="B2" s="52">
-        <f>'Presupuesto De Mano De Obra'!Q22+'Presupuesto De Mano De Obra'!P22+'Presupuesto De Mano De Obra'!E21</f>
-        <v>7606.6955999999991</v>
-      </c>
-      <c r="C2" s="53">
+      <c r="B2" s="52" t="e">
+        <f>'Presupuesto De Mano De Obra'!Q23+'Presupuesto De Mano De Obra'!P23+'Presupuesto De Mano De Obra'!E21</f>
+        <v>#REF!</v>
+      </c>
+      <c r="C2" s="53" t="e">
         <f>A2+B2</f>
-        <v>177797.35615000001</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
